--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,10 +452,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Composition.extension:qstation-transfer-date</t>
-  </si>
-  <si>
-    <t>qstation-transfer-date</t>
+    <t>Composition.extension:station-transfer-date</t>
+  </si>
+  <si>
+    <t>station-transfer-date</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/transfer-date}
@@ -465,24 +465,27 @@
     <t>Date transferred to Q-Station</t>
   </si>
   <si>
-    <t>The date that an ill traveler was transferred to Quartintine Station</t>
+    <t>The date that an ill traveler was transferred to Port Health Station</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Composition.extension:qstation-name</t>
-  </si>
-  <si>
-    <t>qstation-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/qstation-name}
+    <t>Composition.extension:port-health-station</t>
+  </si>
+  <si>
+    <t>port-health-station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/port-health-station}
 </t>
   </si>
   <si>
-    <t>Name of the Q-station traveler was transferred to</t>
+    <t>Name of Q-Station</t>
+  </si>
+  <si>
+    <t>Name of the Port Health Station the traveler was transferred to</t>
   </si>
   <si>
     <t>Composition.extension:flight-detail</t>
@@ -650,14 +653,6 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="55751-2"/&gt;
-    &lt;display value="Public health Case report"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Type of a composition.</t>
   </si>
   <si>
@@ -884,7 +879,7 @@
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
   </si>
   <si>
-    <t>Report of Ill Traveler</t>
+    <t>Simple Report of Ill Traveler</t>
   </si>
   <si>
     <t>./title</t>
@@ -1792,7 +1787,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3029,10 +3024,10 @@
         <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3115,13 +3110,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
@@ -3143,13 +3138,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3232,13 +3227,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
@@ -3260,13 +3255,13 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3349,13 +3344,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>75</v>
@@ -3377,13 +3372,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3466,14 +3461,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3495,16 +3490,16 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3553,7 +3548,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3585,10 +3580,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3611,16 +3606,16 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3670,7 +3665,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3685,27 +3680,27 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3731,16 +3726,16 @@
         <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -3750,7 +3745,7 @@
         <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>75</v>
@@ -3765,13 +3760,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3789,7 +3784,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
@@ -3804,27 +3799,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3847,19 +3842,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3869,7 +3864,7 @@
         <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>75</v>
@@ -3908,7 +3903,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3966,7 +3961,7 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>211</v>
@@ -4048,7 +4043,7 @@
         <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>220</v>
@@ -5064,7 +5059,7 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s" s="2">
         <v>284</v>
@@ -5340,7 +5335,7 @@
         <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5361,7 +5356,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5389,7 +5384,7 @@
         <v>303</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5457,7 +5452,7 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5506,10 +5501,10 @@
         <v>308</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5651,7 +5646,7 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y33" t="s" s="2">
         <v>314</v>
@@ -6278,7 +6273,7 @@
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6299,7 +6294,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6327,7 +6322,7 @@
         <v>303</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6395,7 +6390,7 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6444,10 +6439,10 @@
         <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6589,7 +6584,7 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y41" t="s" s="2">
         <v>355</v>
@@ -6980,7 +6975,7 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -7001,7 +6996,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7029,7 +7024,7 @@
         <v>303</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7097,7 +7092,7 @@
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7146,10 +7141,10 @@
         <v>308</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -7256,7 +7251,7 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>379</v>
@@ -7566,7 +7561,7 @@
         <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>75</v>
@@ -7793,7 +7788,7 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -7814,7 +7809,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7842,7 +7837,7 @@
         <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7910,7 +7905,7 @@
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7959,10 +7954,10 @@
         <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -8188,7 +8183,7 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>410</v>
@@ -8695,7 +8690,7 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>435</v>
@@ -8740,7 +8735,7 @@
         <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -8777,7 +8772,7 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>439</v>
@@ -8859,7 +8854,7 @@
         <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -9013,7 +9008,7 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>454</v>
@@ -9095,7 +9090,7 @@
         <v>460</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -535,6 +535,22 @@
   </si>
   <si>
     <t>Symptoms present in Traveler</t>
+  </si>
+  <si>
+    <t>Composition.extension:lab-results</t>
+  </si>
+  <si>
+    <t>lab-results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/reportofilltraveler/StructureDefinition/lab-results}
+</t>
+  </si>
+  <si>
+    <t>Lab Results</t>
+  </si>
+  <si>
+    <t>Results of a lab</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -1768,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3464,11 +3480,13 @@
         <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3481,26 +3499,22 @@
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3548,7 +3562,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3557,7 +3571,7 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3566,7 +3580,7 @@
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3580,44 +3594,46 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3665,42 +3681,42 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>182</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3708,7 +3724,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -3717,26 +3733,24 @@
         <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3745,7 +3759,7 @@
         <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>75</v>
@@ -3760,13 +3774,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3784,10 +3798,10 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -3799,27 +3813,27 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3836,25 +3850,25 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3864,7 +3878,7 @@
         <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>75</v>
@@ -3879,13 +3893,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3903,7 +3917,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3918,27 +3932,27 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3946,10 +3960,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3961,19 +3975,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3998,13 +4012,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -4022,13 +4036,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -4037,27 +4051,27 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4065,10 +4079,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4080,19 +4094,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -4117,13 +4131,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4141,13 +4155,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -4156,27 +4170,27 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4184,10 +4198,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4199,17 +4213,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4258,7 +4274,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4273,27 +4289,27 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4301,10 +4317,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4316,19 +4332,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4377,10 +4391,10 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
@@ -4392,27 +4406,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4423,7 +4437,7 @@
         <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -4435,17 +4449,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4482,23 +4498,25 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4507,37 +4525,35 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4552,17 +4568,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4599,19 +4615,17 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -4626,30 +4640,30 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
@@ -4671,17 +4685,17 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4730,7 +4744,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4745,30 +4759,30 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
@@ -4790,17 +4804,17 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4849,7 +4863,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4864,38 +4878,40 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4907,18 +4923,18 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4927,7 +4943,7 @@
         <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>75</v>
@@ -4966,13 +4982,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4981,27 +4997,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5009,10 +5025,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5024,16 +5040,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5044,7 +5060,7 @@
         <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>75</v>
@@ -5059,13 +5075,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -5083,10 +5099,10 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5101,13 +5117,13 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>75</v>
@@ -5115,10 +5131,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5138,23 +5154,21 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5178,13 +5192,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -5202,13 +5216,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -5220,13 +5234,13 @@
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>75</v>
@@ -5234,10 +5248,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5248,7 +5262,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5260,16 +5274,20 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5317,31 +5335,31 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>75</v>
@@ -5349,21 +5367,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5375,17 +5393,15 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -5434,25 +5450,25 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5466,14 +5482,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5486,10 +5502,10 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>133</v>
@@ -5501,11 +5517,9 @@
         <v>308</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5571,7 +5585,7 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -5592,36 +5606,38 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5646,52 +5662,52 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>75</v>
@@ -5702,10 +5718,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5713,7 +5729,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5728,17 +5744,17 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5763,13 +5779,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5787,10 +5803,10 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5805,10 +5821,10 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5819,10 +5835,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5845,17 +5861,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5904,7 +5920,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5922,24 +5938,24 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5950,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5959,22 +5975,20 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -6023,7 +6037,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6041,24 +6055,24 @@
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6078,21 +6092,23 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -6140,13 +6156,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -6158,13 +6174,13 @@
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>75</v>
@@ -6172,10 +6188,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6186,7 +6202,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -6198,15 +6214,17 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6255,31 +6273,31 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>75</v>
@@ -6287,21 +6305,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6313,17 +6331,15 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6372,25 +6388,25 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6404,14 +6420,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6424,10 +6440,10 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>133</v>
@@ -6439,11 +6455,9 @@
         <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6509,7 +6523,7 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6523,44 +6537,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6584,13 +6600,13 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -6608,31 +6624,31 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>359</v>
+        <v>75</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -6640,10 +6656,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6666,15 +6682,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6699,13 +6717,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6723,7 +6741,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -6741,13 +6759,13 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>75</v>
@@ -6755,10 +6773,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6766,10 +6784,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6778,23 +6796,19 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6842,13 +6856,13 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
@@ -6860,13 +6874,13 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>75</v>
@@ -6874,10 +6888,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6888,7 +6902,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6897,19 +6911,23 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6957,31 +6975,31 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>194</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>75</v>
@@ -6989,21 +7007,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7015,17 +7033,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -7074,25 +7090,25 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7106,14 +7122,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7126,10 +7142,10 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>133</v>
@@ -7141,11 +7157,9 @@
         <v>308</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7211,7 +7225,7 @@
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7225,14 +7239,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7245,24 +7259,26 @@
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7286,13 +7302,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -7310,7 +7326,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7322,19 +7338,19 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>75</v>
@@ -7342,10 +7358,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7356,7 +7372,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7368,15 +7384,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7401,13 +7419,13 @@
         <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>75</v>
@@ -7425,13 +7443,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -7443,10 +7461,10 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>389</v>
@@ -7471,7 +7489,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7483,13 +7501,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>222</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7546,7 +7564,7 @@
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -7558,13 +7576,13 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>254</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>75</v>
@@ -7572,10 +7590,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7586,7 +7604,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7595,16 +7613,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7655,7 +7673,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7667,7 +7685,7 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7676,7 +7694,7 @@
         <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>75</v>
@@ -7687,10 +7705,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7713,13 +7731,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7770,28 +7788,28 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7802,21 +7820,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7828,17 +7846,15 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7887,25 +7903,25 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7919,14 +7935,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7939,10 +7955,10 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>133</v>
@@ -7954,11 +7970,9 @@
         <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8024,7 +8038,7 @@
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -8038,45 +8052,45 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>175</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>408</v>
+        <v>176</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -8125,28 +8139,28 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -8157,14 +8171,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8183,7 +8197,7 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>410</v>
@@ -8220,13 +8234,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -8244,7 +8258,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8262,10 +8276,10 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8276,10 +8290,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8290,7 +8304,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8302,17 +8316,19 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -8337,13 +8353,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8361,13 +8377,13 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
@@ -8379,24 +8395,24 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8407,7 +8423,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -8419,18 +8435,18 @@
         <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8478,13 +8494,13 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
@@ -8496,16 +8512,16 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -8536,7 +8552,7 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>425</v>
@@ -8604,7 +8620,7 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>428</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8613,10 +8629,10 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -8627,10 +8643,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8653,20 +8669,18 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>434</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8690,13 +8704,13 @@
         <v>75</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>75</v>
@@ -8714,7 +8728,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8723,7 +8737,7 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>433</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8732,24 +8746,24 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>194</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8772,19 +8786,19 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8809,13 +8823,13 @@
         <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>75</v>
@@ -8833,7 +8847,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8851,24 +8865,24 @@
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8879,7 +8893,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8891,18 +8905,20 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8926,13 +8942,13 @@
         <v>75</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>75</v>
@@ -8950,16 +8966,16 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -8968,10 +8984,10 @@
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>452</v>
+        <v>199</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8982,10 +8998,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8996,7 +9012,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -9008,20 +9024,18 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9045,13 +9059,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>458</v>
+        <v>75</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -9069,16 +9083,16 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
@@ -9087,10 +9101,10 @@
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>194</v>
+        <v>457</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9101,10 +9115,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9115,7 +9129,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9127,18 +9141,20 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -9162,13 +9178,13 @@
         <v>75</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>75</v>
+        <v>463</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>75</v>
@@ -9186,16 +9202,16 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
@@ -9204,20 +9220,137 @@
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO63" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9227,7 +9360,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ReportOfIllTravelerSimple.xlsx
+++ b/StructureDefinition-ReportOfIllTravelerSimple.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
